--- a/01_Code/Data/Variables_annual.xlsx
+++ b/01_Code/Data/Variables_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TristanLeiter\Documents\Privat\MT\01_Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADBDF9-2653-4E9B-9512-6B23530ADD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B6245-2544-432C-B9F5-CE648CA1F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balancesheet_annual" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="222">
   <si>
     <t>identifier</t>
   </si>
@@ -720,6 +720,21 @@
   </si>
   <si>
     <t>S10</t>
+  </si>
+  <si>
+    <t>Price Close - Annual - Fiscal</t>
+  </si>
+  <si>
+    <t>Common Shares Outstanding</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>IS12.1</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C71141D-B1A6-4DBF-A8AA-4F0D5D17146B}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1986,88 +2001,93 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="3" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3"/>
       <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="3"/>
       <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="3"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="3"/>
       <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="3"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="3"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769AB65-0E1D-46B0-B17E-A9142EF9B39B}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2227,16 +2247,26 @@
         <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:8">

--- a/01_Code/Data/Variables_annual.xlsx
+++ b/01_Code/Data/Variables_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TristanLeiter\Documents\Privat\MT\01_Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B6245-2544-432C-B9F5-CE648CA1F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA964161-1E74-4257-B43B-E6C285360670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balancesheet_annual" sheetId="1" r:id="rId1"/>
@@ -1633,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C71141D-B1A6-4DBF-A8AA-4F0D5D17146B}">
   <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769AB65-0E1D-46B0-B17E-A9142EF9B39B}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
